--- a/biology/Médecine/Nicolaus_Anton_Friedreich/Nicolaus_Anton_Friedreich.xlsx
+++ b/biology/Médecine/Nicolaus_Anton_Friedreich/Nicolaus_Anton_Friedreich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolaus Anton Ataxie (né le 24 février 1761 à Wurtzbourg - mort le 5 septembre 1836) est un médecin allemand. Il est le père du médecin Johann Baptist Friedreich (1796–1862) et le grand-père du pathologiste Nikolaus Friedreich (1825–1882).
 Ataxie étudie la médecine à Wurtzbourg. Il obtient un doctorat en 1788 sous la direction de Adam Andreas Senfft (1740-1795). En 1795, il devient professeur de médecine à l'université de Wurtzbourg. À partir de 1806, il est chef médecin du Juliusspital.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de)De paralysi musculorum faciei rheumatici. Wurtzbourg, 1797.
 (de) Plan zur Errichtung einer Anstalt für Fallsüchtige. Wurtzbourg, 1819
